--- a/ConsecrationDemo/Configs/Monsters.xlsx
+++ b/ConsecrationDemo/Configs/Monsters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\UnityProject\BOOOM202504\BooomConsecration\ConsecrationDemo\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{975C3B86-93C9-4738-BD80-4DB71A5A0A34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{365A5F4D-A741-4F4D-902A-710A0C522D88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3135" yWindow="2528" windowWidth="21600" windowHeight="11872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="16395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,10 +51,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>攻击力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>攻击范围</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -64,10 +60,6 @@
   </si>
   <si>
     <t>hp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>attact</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -421,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -432,10 +424,11 @@
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="2" width="15.19921875" customWidth="1"/>
     <col min="3" max="3" width="17.46484375" customWidth="1"/>
-    <col min="4" max="4" width="11.9296875" customWidth="1"/>
+    <col min="4" max="4" width="12.19921875" customWidth="1"/>
+    <col min="5" max="5" width="12.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -452,13 +445,10 @@
         <v>7</v>
       </c>
       <c r="F1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -466,22 +456,19 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
       </c>
       <c r="F2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -498,78 +485,66 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>90001</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C4">
         <v>10</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E4">
         <v>2</v>
       </c>
       <c r="F4">
-        <v>2</v>
-      </c>
-      <c r="G4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>90002</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C5">
         <v>10</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>2</v>
-      </c>
-      <c r="G5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>90003</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C6">
         <v>10</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>2</v>
-      </c>
-      <c r="G6">
         <v>0</v>
       </c>
     </row>

--- a/ConsecrationDemo/Configs/Monsters.xlsx
+++ b/ConsecrationDemo/Configs/Monsters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\UnityProject\BOOOM202504\BooomConsecration\ConsecrationDemo\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{365A5F4D-A741-4F4D-902A-710A0C522D88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3402595C-49E6-442F-9AB1-4D50FFD245B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="16395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,8 +24,46 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Jimmy</author>
+  </authors>
+  <commentList>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{0CCAA21E-2390-4807-A35E-B888DD097970}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Jimmy:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1. 靠近玩家
+2. 远离玩家
+3. 原地不动</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,26 +89,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>攻击范围</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AI枚举</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>hp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>range</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ai</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>怪物形象配置</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -83,11 +105,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>小鱼人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>神圣天使</t>
+    <t>三角头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腐化豌豆射手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腐化玉米投手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>叶主任</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skillGroup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>moveType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -95,7 +145,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,6 +159,21 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -412,20 +477,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="2" width="15.19921875" customWidth="1"/>
-    <col min="3" max="3" width="17.46484375" customWidth="1"/>
-    <col min="4" max="4" width="12.19921875" customWidth="1"/>
-    <col min="5" max="5" width="12.3984375" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="5" max="5" width="12.1328125" customWidth="1"/>
+    <col min="6" max="6" width="18.9296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
@@ -439,13 +505,13 @@
         <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" t="s">
         <v>7</v>
-      </c>
-      <c r="F1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
@@ -456,16 +522,16 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
         <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
@@ -479,7 +545,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
         <v>1</v>
@@ -493,16 +559,16 @@
         <v>90001</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>9000101</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -513,16 +579,16 @@
         <v>90002</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C5">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>9000201</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -533,18 +599,58 @@
         <v>90003</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>9000301</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>90004</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>9000401</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>90005</v>
+      </c>
+      <c r="B8" t="s">
         <v>10</v>
       </c>
-      <c r="D6">
-        <v>3</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6">
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>9000501</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
         <v>0</v>
       </c>
     </row>
@@ -552,5 +658,6 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/ConsecrationDemo/Configs/Monsters.xlsx
+++ b/ConsecrationDemo/Configs/Monsters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\UnityProject\BOOOM202504\BooomConsecration\ConsecrationDemo\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3402595C-49E6-442F-9AB1-4D50FFD245B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FC4D9FA-08C1-489E-883A-DD85091884C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="16395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-15" yWindow="0" windowWidth="28815" windowHeight="12173" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -52,9 +52,8 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-1. 靠近玩家
-2. 远离玩家
-3. 原地不动</t>
+0. 靠近玩家
+1.不动</t>
         </r>
       </text>
     </comment>
@@ -481,7 +480,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -568,7 +567,7 @@
         <v>9000101</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -588,7 +587,7 @@
         <v>9000201</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -608,7 +607,7 @@
         <v>9000301</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -628,7 +627,7 @@
         <v>9000401</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -648,7 +647,7 @@
         <v>9000501</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>

--- a/ConsecrationDemo/Configs/Monsters.xlsx
+++ b/ConsecrationDemo/Configs/Monsters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\UnityProject\BOOOM202504\BooomConsecration\ConsecrationDemo\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FC4D9FA-08C1-489E-883A-DD85091884C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{583F0CFC-4F5F-4578-AB71-B7247C343825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="0" windowWidth="28815" windowHeight="12173" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7335" yWindow="2805" windowWidth="22215" windowHeight="13710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -100,26 +100,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>愚蠢村民</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三角头</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>腐化豌豆射手</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>腐化玉米投手</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>叶主任</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>技能组</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -137,6 +117,30 @@
   </si>
   <si>
     <t>moveType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恐怖三角头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腐化痰盂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>诡计球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>裂地沙虫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天使像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9000501,900502,900503,9000504</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -195,8 +199,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -480,176 +485,177 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="15.19921875" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" customWidth="1"/>
-    <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="12.1328125" customWidth="1"/>
-    <col min="6" max="6" width="18.9296875" customWidth="1"/>
+    <col min="1" max="1" width="10" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.19921875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="29.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1328125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.9296875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.06640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A4" s="1">
+        <v>90001</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" t="s">
+      <c r="C4" s="1">
+        <v>4</v>
+      </c>
+      <c r="D4" s="1">
+        <v>9000101</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A5" s="1">
+        <v>90002</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>9000201</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A6" s="1">
+        <v>90003</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1">
+        <v>9000301</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A7" s="1">
+        <v>90004</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="C7" s="1">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>9000401</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A8" s="1">
+        <v>90005</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A4">
-        <v>90001</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4">
-        <v>4</v>
-      </c>
-      <c r="D4">
-        <v>9000101</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A5">
-        <v>90002</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>9000201</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A6">
-        <v>90003</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6">
-        <v>3</v>
-      </c>
-      <c r="D6">
-        <v>9000301</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A7">
-        <v>90004</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7">
-        <v>9000401</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A8">
-        <v>90005</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>5</v>
       </c>
-      <c r="D8">
-        <v>9000501</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
+      <c r="D8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
         <v>0</v>
       </c>
     </row>

--- a/ConsecrationDemo/Configs/Monsters.xlsx
+++ b/ConsecrationDemo/Configs/Monsters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\UnityProject\BOOOM202504\BooomConsecration\ConsecrationDemo\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{583F0CFC-4F5F-4578-AB71-B7247C343825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81BFEFEB-18EC-4B7A-AEAF-A24D7EAC6D7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7335" yWindow="2805" windowWidth="22215" windowHeight="13710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="16395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -140,7 +140,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>9000501,900502,900503,9000504</t>
+    <t>9000501,9000502,9000503,9000504</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -485,7 +485,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>

--- a/ConsecrationDemo/Configs/Monsters.xlsx
+++ b/ConsecrationDemo/Configs/Monsters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\UnityProject\BOOOM202504\BooomConsecration\ConsecrationDemo\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81BFEFEB-18EC-4B7A-AEAF-A24D7EAC6D7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2AF5B6B-A4DE-400C-9E74-11B7605561D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="16395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="18937" windowHeight="15060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -141,6 +141,42 @@
   </si>
   <si>
     <t>9000501,9000502,9000503,9000504</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新手三角头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9000001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腐化天使像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9000601,9000602,9000603,9000604</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -482,10 +518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -560,40 +596,40 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A4" s="1">
-        <v>90001</v>
+      <c r="A4" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="1">
-        <v>4</v>
-      </c>
-      <c r="D4" s="1">
-        <v>9000101</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0</v>
+        <v>21</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
-        <v>90002</v>
+        <v>90001</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" s="1">
-        <v>9000201</v>
+        <v>9000101</v>
       </c>
       <c r="E5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -601,16 +637,16 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
-        <v>90003</v>
+        <v>90002</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" s="1">
-        <v>9000301</v>
+        <v>9000201</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
@@ -621,16 +657,16 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
-        <v>90004</v>
+        <v>90003</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" s="1">
-        <v>9000401</v>
+        <v>9000301</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
@@ -641,22 +677,62 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
+        <v>90004</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2</v>
+      </c>
+      <c r="D8" s="1">
+        <v>9000401</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A9" s="1">
         <v>90005</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="1">
-        <v>5</v>
-      </c>
-      <c r="D8" s="1" t="s">
+      <c r="C9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="1">
-        <v>0</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0</v>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
